--- a/butor_data.xlsx
+++ b/butor_data.xlsx
@@ -348,17 +348,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/butor_data.xlsx
+++ b/butor_data.xlsx
@@ -348,17 +348,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2</v>
+        <v>4321</v>
       </c>
     </row>
   </sheetData>

--- a/butor_data.xlsx
+++ b/butor_data.xlsx
@@ -11,6 +11,14 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>1235</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,17 +356,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>4321</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>4321</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
